--- a/02_Entwurf/UC-Intern/Schnittstelle_Beschreibungen_UC-Intern.xlsx
+++ b/02_Entwurf/UC-Intern/Schnittstelle_Beschreibungen_UC-Intern.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>UseCase</t>
   </si>
@@ -99,9 +99,6 @@
     <t>get_EdgeMatrix() : Matrix&lt;bool&gt;</t>
   </si>
   <si>
-    <t>FlowIdentifier(type: FlowType, id : int)</t>
-  </si>
-  <si>
     <t>get_Type() : FlowIdentifier</t>
   </si>
   <si>
@@ -117,16 +114,10 @@
     <t>get_Step() : int</t>
   </si>
   <si>
-    <t>Condition(condition : string, conditionState : bool)</t>
-  </si>
-  <si>
     <t>get_Condition() : string</t>
   </si>
   <si>
     <t>get_ConditionState() : bool</t>
-  </si>
-  <si>
-    <t>Node(stepDescription : string, flowIdentifier : FlowIdentifier)</t>
   </si>
   <si>
     <t>get_FlowIdentifier() : FlowIdentifier</t>
@@ -227,6 +218,9 @@
   </si>
   <si>
     <t>An object representing a flow with its unique identifier and its postcondition as a string.</t>
+  </si>
+  <si>
+    <t>UseCase()</t>
   </si>
 </sst>
 </file>
@@ -566,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,30 +579,32 @@
     <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +612,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +620,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,165 +628,163 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="4" t="s">
-        <v>48</v>
+      <c r="B40" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="4" t="s">
-        <v>46</v>
+      <c r="B44" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="4"/>
+      <c r="A47" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -798,7 +792,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B50" s="4"/>
     </row>
@@ -808,7 +802,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4"/>
     </row>
@@ -818,7 +812,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B54" s="4"/>
     </row>
@@ -827,30 +821,32 @@
       <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="A56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="1"/>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,27 +854,27 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -889,22 +885,22 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -915,80 +911,70 @@
     <row r="82" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" t="s">
-        <v>53</v>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/02_Entwurf/UC-Intern/Schnittstelle_Beschreibungen_UC-Intern.xlsx
+++ b/02_Entwurf/UC-Intern/Schnittstelle_Beschreibungen_UC-Intern.xlsx
@@ -90,9 +90,6 @@
     <t>AddBoundedAlternativeFlow(id : int, steps : list&lt;string&gt;, postcondition : string, referenceSteps: List&lt;ReferenceStep&gt;) : void</t>
   </si>
   <si>
-    <t>Finalize() : void</t>
-  </si>
-  <si>
     <t>get_Nodes() : List&lt;Node&gt;</t>
   </si>
   <si>
@@ -157,22 +154,10 @@
     <t>get_StepDescription() : string</t>
   </si>
   <si>
-    <t>Finalizes the description of the use-case and allows for building the internal graph-representation. Before calling Finalize only the setters and methods starting with "Set" and "Add" are allowed to be called.
-After calling after using these methods to describe the use-case finalize is called and the given description is used to build a graph representation. After calling Finalize only the getters are allowed to be called.</t>
-  </si>
-  <si>
     <t>A flow identifier identifies one flow with a type and a number. As there is only one basic flow the number should not be accounted for the basic flow type.</t>
   </si>
   <si>
     <t>A reference step descibes one specific step across all flows and therefor has a flow identifier and a step number.</t>
-  </si>
-  <si>
-    <t>This class is used to create and retrieve the representation of the use-case as a graph. It also provides all the information contained in a use-case.
-The usage of the class involves two steps:
-The first step is to build the graph. For that the setter methods and the methods starting with "Set" and "Add" are used to insert the description of a graph. For that all "Set" methods must be used and all setters and "Add" methods can be used to describe a use-case.
-The setters (in this case setters are all methods starting with "set_" are not mandatory because they are simple string setters and therefor return null if no value was set.
-After inserting the whole description the method Finalize is called. After that no usage of setters, "Set" and "Add" methods is allowed anymore.
-The second step involves retrieval of the data. For that various getters are provided with most being simple string getters. The remaining getters are used to retrive the graph in a representation with a node list and two edge matrices.</t>
   </si>
   <si>
     <t>A condition describes the condition which must be matched for a edge in the graph to be valid. For most edges there is no condition meaning they are always valid (if the exists).
@@ -221,6 +206,21 @@
   </si>
   <si>
     <t>UseCase()</t>
+  </si>
+  <si>
+    <t>BuildGraph() : void</t>
+  </si>
+  <si>
+    <t>Signales the end of the description of the use-case and builds the internal graph-representation. Before calling BuildGraph only the setters and methods starting with "Set" and "Add" are allowed to be called.
+After using these methods to describe the use-case, BuildGraph is called and the given description is used to build a graph representation. After calling BuildGraph only the getters are allowed to be called.</t>
+  </si>
+  <si>
+    <t>This class is used to create and retrieve the representation of the use-case as a graph. It also provides all the information contained in a use-case.
+The usage of the class involves two steps:
+The first step is to build the graph. For that the setter methods and the methods starting with "Set" and "Add" are used to insert the description of a graph. For that all "Set" methods must be used and all setters and "Add" methods can be used to describe a use-case.
+The setters (in this case setters are all methods starting with "set_" are not mandatory because they are simple string setters and therefor return null if no value was set.
+After inserting the whole description the method BuildGraph is called. After that no usage of setters, "Set" and "Add" methods is allowed anymore.
+The second step involves retrieval of the data. For that various getters are provided with most being simple string getters. The remaining getters are used to retrive the graph in a representation with a node list and two edge matrices.</t>
   </si>
 </sst>
 </file>
@@ -562,9 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -579,12 +577,12 @@
     <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -706,7 +704,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,7 +715,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +726,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,51 +737,51 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +790,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4"/>
     </row>
@@ -802,7 +800,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B52" s="4"/>
     </row>
@@ -812,7 +810,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4"/>
     </row>
@@ -822,7 +820,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4"/>
     </row>
@@ -841,12 +839,12 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,27 +852,27 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -885,22 +883,22 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -911,17 +909,17 @@
     <row r="82" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -932,49 +930,49 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/02_Entwurf/UC-Intern/Schnittstelle_Beschreibungen_UC-Intern.xlsx
+++ b/02_Entwurf/UC-Intern/Schnittstelle_Beschreibungen_UC-Intern.xlsx
@@ -111,9 +111,6 @@
     <t>get_Step() : int</t>
   </si>
   <si>
-    <t>get_Condition() : string</t>
-  </si>
-  <si>
     <t>get_ConditionState() : bool</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
 The setters (in this case setters are all methods starting with "set_" are not mandatory because they are simple string setters and therefor return null if no value was set.
 After inserting the whole description the method BuildGraph is called. After that no usage of setters, "Set" and "Add" methods is allowed anymore.
 The second step involves retrieval of the data. For that various getters are provided with most being simple string getters. The remaining getters are used to retrive the graph in a representation with a node list and two edge matrices.</t>
+  </si>
+  <si>
+    <t>get_ConditionText() : string</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -577,12 +579,12 @@
     <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -704,7 +706,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,7 +717,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +728,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,18 +739,18 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +761,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,18 +772,18 @@
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +792,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4"/>
     </row>
@@ -800,7 +802,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="4"/>
     </row>
@@ -810,7 +812,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4"/>
     </row>
@@ -820,7 +822,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4"/>
     </row>
@@ -839,7 +841,7 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,12 +859,12 @@
     </row>
     <row r="65" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +874,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -883,7 +885,7 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,17 +911,17 @@
     <row r="82" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -930,49 +932,49 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
